--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T23:50:16+00:00</t>
+    <t>2021-09-14T04:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -508,300 +508,108 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Observation.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.type</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Observation.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://moh.bw.org/ext/identifier/omang</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Observation.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Observation.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
   </si>
   <si>
     <t>Classification of  type of observation</t>
@@ -1058,10 +866,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1106,6 +910,9 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -1327,7 +1134,25 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1511,9 +1336,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Component results</t>
   </si>
   <si>
@@ -1524,13 +1346,6 @@
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:code}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the component.code pattern</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1603,24 +1418,6 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>birthDistrict</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="80910-3"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>birthPlaceName</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1958,7 +1755,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1980,11 +1777,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3178,7 +2975,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
@@ -3188,13 +2985,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
@@ -3301,14 +3098,14 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>82</v>
@@ -3317,19 +3114,21 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3377,31 +3176,31 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3412,11 +3211,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3432,19 +3231,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3482,19 +3281,19 @@
         <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3506,19 +3305,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3529,7 +3328,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3537,7 +3336,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>92</v>
@@ -3555,16 +3354,16 @@
         <v>112</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3589,34 +3388,34 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>92</v>
@@ -3628,19 +3427,19 @@
         <v>104</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3648,7 +3447,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3659,7 +3458,7 @@
         <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -3668,22 +3467,22 @@
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3708,13 +3507,13 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>82</v>
@@ -3732,13 +3531,13 @@
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>82</v>
@@ -3753,13 +3552,13 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3767,15 +3566,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>92</v>
@@ -3790,19 +3589,19 @@
         <v>93</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3812,10 +3611,10 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3827,13 +3626,13 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
@@ -3851,10 +3650,10 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>92</v>
@@ -3866,27 +3665,27 @@
         <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3909,18 +3708,20 @@
         <v>93</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
       </c>
@@ -3932,7 +3733,7 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>82</v>
@@ -3968,7 +3769,7 @@
         <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
@@ -3983,19 +3784,19 @@
         <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4003,7 +3804,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4014,7 +3815,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -4026,15 +3827,17 @@
         <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>82</v>
@@ -4083,13 +3886,13 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -4104,13 +3907,13 @@
         <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4118,11 +3921,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4141,18 +3944,20 @@
         <v>93</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4200,7 +4005,7 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -4215,19 +4020,19 @@
         <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4235,18 +4040,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>82</v>
@@ -4258,17 +4063,19 @@
         <v>93</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>82</v>
@@ -4317,13 +4124,13 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>82</v>
@@ -4332,19 +4139,19 @@
         <v>104</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4352,18 +4159,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>82</v>
@@ -4375,16 +4182,16 @@
         <v>93</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4434,13 +4241,13 @@
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>82</v>
@@ -4449,19 +4256,19 @@
         <v>104</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4469,7 +4276,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4477,34 +4284,32 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>82</v>
@@ -4529,13 +4334,13 @@
         <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>82</v>
@@ -4553,13 +4358,13 @@
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
@@ -4568,19 +4373,19 @@
         <v>104</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4588,7 +4393,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4599,7 +4404,7 @@
         <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>82</v>
@@ -4608,22 +4413,22 @@
         <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>82</v>
@@ -4648,13 +4453,13 @@
         <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>82</v>
@@ -4672,16 +4477,16 @@
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>104</v>
@@ -4690,32 +4495,32 @@
         <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>92</v>
@@ -4727,22 +4532,22 @@
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>82</v>
@@ -4752,7 +4557,7 @@
         <v>82</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4767,13 +4572,13 @@
         <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>82</v>
@@ -4791,77 +4596,77 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>82</v>
@@ -4886,13 +4691,13 @@
         <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>82</v>
@@ -4910,13 +4715,13 @@
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
@@ -4925,27 +4730,27 @@
         <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4965,21 +4770,23 @@
         <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5027,7 +4834,7 @@
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
@@ -5048,13 +4855,13 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5062,11 +4869,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5082,23 +4889,21 @@
         <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5122,13 +4927,13 @@
         <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>82</v>
@@ -5146,7 +4951,7 @@
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>80</v>
@@ -5161,31 +4966,31 @@
         <v>104</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5201,22 +5006,22 @@
         <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>82</v>
@@ -5241,13 +5046,13 @@
         <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>82</v>
@@ -5265,7 +5070,7 @@
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -5280,19 +5085,19 @@
         <v>104</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5300,7 +5105,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5320,19 +5125,19 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5382,7 +5187,7 @@
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -5400,24 +5205,24 @@
         <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5428,7 +5233,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5437,21 +5242,21 @@
         <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5499,13 +5304,13 @@
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5514,27 +5319,27 @@
         <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5545,7 +5350,7 @@
         <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>82</v>
@@ -5554,22 +5359,22 @@
         <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>82</v>
@@ -5618,42 +5423,42 @@
         <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5676,20 +5481,16 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5713,13 +5514,13 @@
         <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>82</v>
@@ -5737,7 +5538,7 @@
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -5746,10 +5547,10 @@
         <v>92</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -5758,10 +5559,10 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -5772,11 +5573,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5795,20 +5596,18 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>355</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5832,13 +5631,13 @@
         <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>82</v>
@@ -5856,7 +5655,7 @@
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
@@ -5868,34 +5667,34 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5908,25 +5707,25 @@
         <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>369</v>
+        <v>141</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>82</v>
@@ -5975,7 +5774,7 @@
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>80</v>
@@ -5987,7 +5786,7 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -5996,10 +5795,10 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6010,7 +5809,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6033,17 +5832,15 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>82</v>
@@ -6068,13 +5865,13 @@
         <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>82</v>
@@ -6092,7 +5889,7 @@
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>80</v>
@@ -6101,7 +5898,7 @@
         <v>92</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>104</v>
@@ -6110,24 +5907,24 @@
         <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6150,20 +5947,16 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6187,13 +5980,13 @@
         <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>82</v>
@@ -6211,7 +6004,7 @@
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>80</v>
@@ -6220,7 +6013,7 @@
         <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>104</v>
@@ -6232,10 +6025,10 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
@@ -6246,7 +6039,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6269,18 +6062,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6304,13 +6099,13 @@
         <v>82</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>82</v>
@@ -6328,7 +6123,7 @@
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>80</v>
@@ -6346,24 +6141,24 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6374,7 +6169,7 @@
         <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>82</v>
@@ -6386,18 +6181,20 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>402</v>
+        <v>190</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6421,13 +6218,13 @@
         <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>82</v>
@@ -6445,13 +6242,13 @@
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
@@ -6463,24 +6260,24 @@
         <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6491,7 +6288,7 @@
         <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>82</v>
@@ -6503,19 +6300,17 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>82</v>
@@ -6564,19 +6359,19 @@
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6585,10 +6380,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -6599,7 +6394,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6625,10 +6420,10 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>159</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>160</v>
+        <v>404</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6679,7 +6474,7 @@
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>80</v>
@@ -6691,7 +6486,7 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>82</v>
@@ -6700,10 +6495,10 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>162</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -6714,11 +6509,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6734,19 +6529,19 @@
         <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>138</v>
+        <v>407</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>139</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6796,7 +6591,7 @@
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>168</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
@@ -6808,7 +6603,7 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>82</v>
@@ -6817,10 +6612,10 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>162</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -6831,11 +6626,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6848,26 +6643,24 @@
         <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>138</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6915,7 +6708,7 @@
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
@@ -6927,7 +6720,7 @@
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -6936,10 +6729,10 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>135</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
@@ -6950,7 +6743,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6961,7 +6754,7 @@
         <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>82</v>
@@ -6970,19 +6763,23 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>427</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7030,16 +6827,16 @@
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>104</v>
@@ -7051,10 +6848,10 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -7065,7 +6862,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7088,13 +6885,13 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>427</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7145,7 +6942,7 @@
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>80</v>
@@ -7154,10 +6951,10 @@
         <v>92</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
@@ -7166,10 +6963,10 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7180,18 +6977,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>82</v>
@@ -7203,20 +7000,18 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>438</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>439</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7240,13 +7035,13 @@
         <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>82</v>
@@ -7264,31 +7059,31 @@
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7299,11 +7094,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7316,25 +7111,25 @@
         <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>448</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>449</v>
+        <v>141</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>82</v>
@@ -7359,13 +7154,13 @@
         <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>82</v>
@@ -7383,7 +7178,7 @@
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>80</v>
@@ -7395,19 +7190,19 @@
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>135</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7418,7 +7213,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7426,7 +7221,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>92</v>
@@ -7438,20 +7233,22 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>454</v>
+        <v>190</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>457</v>
+        <v>204</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>82</v>
@@ -7476,13 +7273,13 @@
         <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>82</v>
@@ -7500,10 +7297,10 @@
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>92</v>
@@ -7518,16 +7315,16 @@
         <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>458</v>
+        <v>212</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7535,7 +7332,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7555,19 +7352,23 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>435</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7615,7 +7416,7 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>80</v>
@@ -7633,24 +7434,24 @@
         <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>431</v>
+        <v>277</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>462</v>
+        <v>278</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7661,7 +7462,7 @@
         <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>82</v>
@@ -7670,21 +7471,23 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>464</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7708,13 +7511,13 @@
         <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>82</v>
@@ -7732,16 +7535,16 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>104</v>
@@ -7753,10 +7556,10 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>468</v>
+        <v>135</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>469</v>
+        <v>289</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -7767,11 +7570,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7787,21 +7590,23 @@
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>471</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>472</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>473</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>82</v>
       </c>
@@ -7825,13 +7630,13 @@
         <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>82</v>
@@ -7849,7 +7654,7 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -7867,24 +7672,24 @@
         <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>468</v>
+        <v>299</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7892,7 +7697,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>81</v>
@@ -7904,22 +7709,22 @@
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>480</v>
+        <v>351</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>481</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>82</v>
@@ -7956,19 +7761,19 @@
         <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>80</v>
@@ -7989,3100 +7794,20 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>484</v>
+        <v>354</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>485</v>
+        <v>355</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11092,7 +7817,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T04:26:25+00:00</t>
+    <t>2021-09-16T21:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T21:56:02+00:00</t>
+    <t>2022-01-27T20:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:53:37+00:00</t>
+    <t>2022-01-27T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:03:35+00:00</t>
+    <t>2022-01-27T21:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:13:11+00:00</t>
+    <t>2022-01-27T21:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:19:29+00:00</t>
+    <t>2022-01-27T21:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:25:27+00:00</t>
+    <t>2022-01-27T21:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:29:22+00:00</t>
+    <t>2022-01-27T21:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:47:10+00:00</t>
+    <t>2022-01-27T21:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:37+00:00</t>
+    <t>2022-01-27T21:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:46+00:00</t>
+    <t>2022-02-05T00:41:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-birth-place-observation.xlsx
+++ b/StructureDefinition-birth-place-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-05T00:41:59+00:00</t>
+    <t>2022-02-05T01:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
